--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragusmao/trybe-projects/sd-011-mysql-one-for-all/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F417B-8846-C046-9C5E-9AEFD097AAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="26960" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>usuario_id</t>
   </si>
@@ -128,36 +149,145 @@
   </si>
   <si>
     <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>birth_year</t>
+  </si>
+  <si>
+    <t>plan_id</t>
+  </si>
+  <si>
+    <t>plan_name</t>
+  </si>
+  <si>
+    <t>plan_price</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>artist_name</t>
+  </si>
+  <si>
+    <t>album_title</t>
+  </si>
+  <si>
+    <t>song_id</t>
+  </si>
+  <si>
+    <t>song_title</t>
+  </si>
+  <si>
+    <t>Soul For Us</t>
+  </si>
+  <si>
+    <t>Reflections Of Magic</t>
+  </si>
+  <si>
+    <t>Dance With Her Own</t>
+  </si>
+  <si>
+    <t>Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t>Time Fireworks</t>
+  </si>
+  <si>
+    <t>Magic Circus</t>
+  </si>
+  <si>
+    <t>Honey, So Do I</t>
+  </si>
+  <si>
+    <t>She Knows</t>
+  </si>
+  <si>
+    <t>Fantasy For Me</t>
+  </si>
+  <si>
+    <t>Celebration Of More</t>
+  </si>
+  <si>
+    <t>Rock His Everything</t>
+  </si>
+  <si>
+    <t>Home Forever</t>
+  </si>
+  <si>
+    <t>Diamond Power</t>
+  </si>
+  <si>
+    <t>Honey, Let's Be Silly</t>
+  </si>
+  <si>
+    <t>Thang Of Thunder</t>
+  </si>
+  <si>
+    <t>Words Of Her Life</t>
+  </si>
+  <si>
+    <t>Without My Streets</t>
+  </si>
+  <si>
+    <t>Sweetie, Let's Go Wild</t>
+  </si>
+  <si>
+    <t>PLANS</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>ARTISTS</t>
+  </si>
+  <si>
+    <t>ALBUMS</t>
+  </si>
+  <si>
+    <t>SONGS</t>
+  </si>
+  <si>
+    <t>PLAY_HISTORY</t>
+  </si>
+  <si>
+    <t>FOLLOING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -364,95 +494,81 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,27 +577,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +857,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -702,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +1127,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -972,7 +1152,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -991,7 +1171,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1197,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1223,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1249,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +1418,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +1440,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,172 +1710,182 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1406" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s" s="6">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>23</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="12">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15">
         <v>7.99</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" t="s" s="19">
+      <c r="I3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="9">
         <v>5.99</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="15">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" t="s" s="16">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18">
         <v>4</v>
       </c>
-      <c r="I5" t="s" s="19">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1">
+    <row r="6" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1700,17 +1896,17 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="24"/>
@@ -1719,17 +1915,17 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" ht="26.55" customHeight="1">
+    <row r="8" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="26">
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="24"/>
@@ -1738,17 +1934,17 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s" s="27">
+      <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="25"/>
@@ -1757,17 +1953,17 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="26.55" customHeight="1">
+    <row r="10" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s" s="26">
+      <c r="D10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="24"/>
@@ -1776,17 +1972,17 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="39.55" customHeight="1">
+    <row r="11" spans="1:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" t="s" s="14">
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="14">
+      <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="27">
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="25"/>
@@ -1795,17 +1991,17 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" ht="26.55" customHeight="1">
+    <row r="12" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s" s="26">
+      <c r="D12" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="24"/>
@@ -1816,9 +2012,605 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070A0BF-7F38-434C-BA21-6A300B133EC5}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f>2021-23</f>
+        <v>1998</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f>2021-35</f>
+        <v>1986</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>2021-20</f>
+        <v>2001</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>2021-45</f>
+        <v>1976</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>5.99</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>7.99</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragusmao/trybe-projects/sd-011-mysql-one-for-all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F417B-8846-C046-9C5E-9AEFD097AAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E8AAF-E351-5842-A1ED-1C2E3B2C587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="26960" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="26960" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <t>PLAY_HISTORY</t>
   </si>
   <si>
-    <t>FOLLOING</t>
+    <t>FOLLOWING</t>
   </si>
 </sst>
 </file>
@@ -274,6 +274,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1731,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2023,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070A0BF-7F38-434C-BA21-6A300B133EC5}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2044,7 +2045,7 @@
       <c r="J1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>74</v>
       </c>
     </row>
